--- a/5. Отчет о найденных багах и проведенном тестировании.xlsx
+++ b/5. Отчет о найденных багах и проведенном тестировании.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecchiblood\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2911FE3-5B2B-4EA7-AD16-2F7A270F5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC3B79-C7E3-4821-BD2E-D75392D1B1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$7:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$7:$E$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Отчёт о найденных багах</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>S5 Тривиальная</t>
-  </si>
-  <si>
-    <t>Наличие карточек блюд с описанием и изображением"</t>
   </si>
   <si>
     <t>Присутствует 6 карточек блюд. На карточке "Пицца маргарита" изображение ссылается на битую ссылку, на карточке "Тирамису" вместо описания блюда написано "Вставить описание". Шрифты единообразны.</t>
@@ -229,6 +226,33 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>Наличие карточек блюд с описанием и изображением</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Паста Карбонара"</t>
+  </si>
+  <si>
+    <t>Кнопка не кликабельна</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Пицца Маргарита"</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Филе Миньон"</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Тирамису"</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Равиоли с трюфелем"</t>
+  </si>
+  <si>
+    <t>Кликнуть кнопку "Заказать" на карточке "Салат Капрезе"</t>
+  </si>
+  <si>
+    <t>Выводится окно "Спасибо за заказ" и случайный номер заказа. Т.е. функция корзины и онлайн заказа на сайте не реализована и выполнена в виде заглушки.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,29 +635,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,6 +646,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +675,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,17 +900,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
@@ -897,13 +924,13 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -913,13 +940,13 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -957,16 +984,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -974,16 +1001,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -991,84 +1018,84 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1076,84 +1103,84 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1161,152 +1188,152 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>17</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>39</v>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
@@ -1314,139 +1341,245 @@
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>23</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="E36" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="B40" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="16">
+        <f>COUNTIF(E8:E36, "S1 Блокирующая")</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="16">
+        <f>COUNTIF($E8:$E36, "S2 Критическая")</f>
+        <v>17</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="16">
+        <f>COUNTIF($E8:$E36, "S3 Значительная")</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="16">
+        <f>COUNTIF($E8:$E36, "S4 Незначительная")</f>
+        <v>2</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="16">
+        <f>COUNTIF($E8:$E36, "S5 Тривиальная")</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="20">
-        <f>COUNTIF(E8:E30, "S1 Блокирующая")</f>
-        <v>7</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="20">
-        <f>COUNTIF($E8:$E30, "S2 Критическая")</f>
-        <v>7</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="20">
-        <f>COUNTIF($E8:$E30, "S3 Значительная")</f>
-        <v>3</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="20">
-        <f>COUNTIF($E8:$E30, "S4 Незначительная")</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="20">
-        <f>COUNTIF($E8:$E30, "S5 Тривиальная")</f>
-        <v>4</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:E31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:E37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:E37">
+      <sortCondition ref="A7:A37"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A46:E46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0" footer="0"/>
